--- a/biology/Zoologie/Ambystoma_bishopi/Ambystoma_bishopi.xlsx
+++ b/biology/Zoologie/Ambystoma_bishopi/Ambystoma_bishopi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambystoma bishopi est une espèce d'urodèles de la famille des Ambystomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambystoma bishopi est une espèce d'urodèles de la famille des Ambystomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du Sud-Est des États-Unis[1]. Elle se rencontre :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du Sud-Est des États-Unis. Elle se rencontre :
 dans le nord-ouest de la Floride ;
 dans le sud-ouest de la Géorgie ;
 dans l'extrême Sud-Est de l'Alabama.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 40,5 à 47,1 mm et les femelles de 41,1 à 52,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 40,5 à 47,1 mm et les femelles de 41,1 à 52,2 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Goin, 1950 : A study of the salamander, Ambystoma cingulatum, with the description of a new subspecies. Annals of the Carnegie Museum, Pittsburgh, vol. 31, p. 299-321.</t>
         </is>
